--- a/data/raw/guadua_lemmas_paleas_raw.xlsx
+++ b/data/raw/guadua_lemmas_paleas_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkam\Documents\Guadua_leaf_project\guadua_leaf\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8295A889-C57E-494E-A35F-65F64DB991CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA20AD-3945-40F1-A784-9F61D9315D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2010" windowWidth="24210" windowHeight="12750" xr2:uid="{4A5E8B54-E7AB-40A1-88CA-D7612C0FD733}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24210" windowHeight="12750" xr2:uid="{4A5E8B54-E7AB-40A1-88CA-D7612C0FD733}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,9 +468,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>lemma_papillae</t>
-  </si>
-  <si>
     <t>lemma_prickle</t>
   </si>
   <si>
@@ -516,9 +513,6 @@
     <t>lemma_subsidiary_parallel</t>
   </si>
   <si>
-    <t>palea_papillae</t>
-  </si>
-  <si>
     <t>palea_margin_prickle</t>
   </si>
   <si>
@@ -637,6 +631,12 @@
   </si>
   <si>
     <t>palea_papillae_branch</t>
+  </si>
+  <si>
+    <t>lemma_papillae_simple</t>
+  </si>
+  <si>
+    <t>palea_papillae_simple</t>
   </si>
 </sst>
 </file>
@@ -1059,9 +1059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2242B5A7-4B30-4F38-BDEF-7296D22E854E}">
   <dimension ref="A1:BA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomLeft" activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,154 +1117,154 @@
         <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AU1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -1445,7 +1445,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>5</v>
@@ -1606,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>5</v>
@@ -1767,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>5</v>
@@ -1928,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>5</v>
@@ -2089,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>5</v>
@@ -2250,7 +2250,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -2411,7 +2411,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
@@ -2572,7 +2572,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>5</v>
@@ -2733,7 +2733,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>5</v>
@@ -2894,7 +2894,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>5</v>
@@ -3055,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -3216,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>5</v>
@@ -3377,7 +3377,7 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>5</v>
@@ -3538,7 +3538,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>33</v>
@@ -3699,7 +3699,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>33</v>
@@ -3860,7 +3860,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>5</v>
@@ -4021,7 +4021,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -4182,7 +4182,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>33</v>
@@ -4343,7 +4343,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>33</v>
@@ -4504,7 +4504,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>33</v>
@@ -4665,7 +4665,7 @@
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>33</v>
@@ -4826,7 +4826,7 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>33</v>
@@ -4987,7 +4987,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>5</v>
@@ -5148,7 +5148,7 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>5</v>
@@ -5309,7 +5309,7 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>5</v>
@@ -5470,7 +5470,7 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>5</v>
@@ -5631,7 +5631,7 @@
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>17</v>
@@ -5792,7 +5792,7 @@
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>17</v>
@@ -5938,10 +5938,10 @@
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
@@ -5953,7 +5953,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
@@ -6114,7 +6114,7 @@
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>33</v>
@@ -6275,7 +6275,7 @@
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -6436,7 +6436,7 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>5</v>
@@ -6597,7 +6597,7 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>5</v>
@@ -7885,7 +7885,7 @@
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G43" t="s">
         <v>5</v>
@@ -8046,7 +8046,7 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
@@ -8207,7 +8207,7 @@
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G45" t="s">
         <v>5</v>
@@ -8368,7 +8368,7 @@
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
@@ -8529,7 +8529,7 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G47" t="s">
         <v>5</v>
@@ -8690,7 +8690,7 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
@@ -8851,7 +8851,7 @@
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>33</v>
@@ -8997,7 +8997,7 @@
     </row>
     <row r="50" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>26</v>
@@ -9012,7 +9012,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>17</v>
@@ -9173,7 +9173,7 @@
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>17</v>
@@ -9334,7 +9334,7 @@
         <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>17</v>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="53" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -9495,7 +9495,7 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -9656,7 +9656,7 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>17</v>
@@ -9817,7 +9817,7 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>5</v>
@@ -9978,7 +9978,7 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
@@ -10446,7 +10446,7 @@
     </row>
     <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B59" t="s">
         <v>52</v>
@@ -10461,7 +10461,7 @@
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -10622,7 +10622,7 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>33</v>
@@ -10783,7 +10783,7 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -10929,7 +10929,7 @@
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>31</v>
@@ -10944,7 +10944,7 @@
         <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>33</v>
